--- a/Entries not considered in the correct period/AdjustmentEntries.xlsx
+++ b/Entries not considered in the correct period/AdjustmentEntries.xlsx
@@ -5,25 +5,38 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmajumder4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmajumder4\Downloads\Analysis\Consolidated\Entries not considered in the correct period\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA59C12B-CC66-4BCF-A3CB-F4E1A812592F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076F1535-4421-47FC-9F77-691E96C850E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$45</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>GL Code for Mar'22</t>
   </si>
@@ -43,18 +56,6 @@
     <t>Jan'24 to Mar'24</t>
   </si>
   <si>
-    <t>Jan'25 to Mar'25</t>
-  </si>
-  <si>
-    <t>Apr'25 to Jun'25</t>
-  </si>
-  <si>
-    <t>PL</t>
-  </si>
-  <si>
-    <t>Remarks for June'25</t>
-  </si>
-  <si>
     <t>34020000</t>
   </si>
   <si>
@@ -167,24 +168,6 @@
   </si>
   <si>
     <t>83510000 - Legal Fees</t>
-  </si>
-  <si>
-    <t>BS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BS </t>
-  </si>
-  <si>
-    <t>No entry for Interest Booked in MIS</t>
-  </si>
-  <si>
-    <t>Depreciation expense of 402,981.07 is there in Books for 6 months, so balance entry passed</t>
-  </si>
-  <si>
-    <t>Rental expense adjustment of 402,981.07 is there in Books for 6 months, so 3 months adjustment entry passed</t>
-  </si>
-  <si>
-    <t>No entry for ROU and LL Booked in MIS</t>
   </si>
 </sst>
 </file>
@@ -552,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD39"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -563,13 +546,10 @@
     <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="91.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="96.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,20 +568,8 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>32000000</v>
       </c>
@@ -609,7 +577,7 @@
         <v>85020050</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>3993.0289834374462</v>
@@ -620,20 +588,8 @@
       <c r="F2">
         <v>9226.0855871947369</v>
       </c>
-      <c r="G2">
-        <v>7386.7815414869019</v>
-      </c>
-      <c r="H2">
-        <v>18256.915759338292</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>21055000</v>
       </c>
@@ -641,7 +597,7 @@
         <v>21055000</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>-3993.0289834374462</v>
@@ -652,17 +608,8 @@
       <c r="F3">
         <v>-9226.0855871947369</v>
       </c>
-      <c r="G3">
-        <v>-7386.7815414869019</v>
-      </c>
-      <c r="H3">
-        <v>-18256.915759338292</v>
-      </c>
-      <c r="I3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>32000000</v>
       </c>
@@ -670,7 +617,7 @@
         <v>84520000</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>183074.0298141613</v>
@@ -681,20 +628,8 @@
       <c r="F4">
         <v>180792.20487270149</v>
       </c>
-      <c r="G4">
-        <v>197668.60415378091</v>
-      </c>
-      <c r="H4">
-        <v>-197668.60415378091</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>12060910</v>
       </c>
@@ -702,7 +637,7 @@
         <v>12060910</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>-183074.0298141613</v>
@@ -713,17 +648,8 @@
       <c r="F5">
         <v>-180792.20487270149</v>
       </c>
-      <c r="G5">
-        <v>-197668.60415378091</v>
-      </c>
-      <c r="H5">
-        <v>197668.60415378091</v>
-      </c>
-      <c r="I5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>21055000</v>
       </c>
@@ -731,7 +657,7 @@
         <v>21055000</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>194904.6</v>
@@ -742,20 +668,8 @@
       <c r="F6">
         <v>192900</v>
       </c>
-      <c r="G6">
-        <v>211500</v>
-      </c>
-      <c r="H6">
-        <v>-211820</v>
-      </c>
-      <c r="I6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>32000000</v>
       </c>
@@ -763,7 +677,7 @@
         <v>82510000</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>-194904.6</v>
@@ -774,20 +688,8 @@
       <c r="F7">
         <v>-192900</v>
       </c>
-      <c r="G7">
-        <v>-211500</v>
-      </c>
-      <c r="H7">
-        <v>211820</v>
-      </c>
-      <c r="I7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7">
-        <v>191481.07</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>32000000</v>
       </c>
@@ -795,7 +697,7 @@
         <v>84036000</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>35000</v>
@@ -803,11 +705,8 @@
       <c r="E8">
         <v>35000</v>
       </c>
-      <c r="I8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>11020000</v>
       </c>
@@ -815,7 +714,7 @@
         <v>11020000</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>-35000</v>
@@ -823,11 +722,8 @@
       <c r="E9">
         <v>-35000</v>
       </c>
-      <c r="I9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>34010000</v>
       </c>
@@ -835,7 +731,7 @@
         <v>34010000</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>458018</v>
@@ -843,17 +739,8 @@
       <c r="F10">
         <v>-701806.17105431529</v>
       </c>
-      <c r="G10">
-        <v>-476307.9183423128</v>
-      </c>
-      <c r="H10">
-        <v>1170836.061447999</v>
-      </c>
-      <c r="I10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>32000000</v>
       </c>
@@ -861,7 +748,7 @@
         <v>86020000</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>-458018</v>
@@ -869,17 +756,8 @@
       <c r="F11">
         <v>701806.17105431529</v>
       </c>
-      <c r="G11">
-        <v>476307.9183423128</v>
-      </c>
-      <c r="H11">
-        <v>-1170836.061447999</v>
-      </c>
-      <c r="I11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>32000000</v>
       </c>
@@ -887,7 +765,7 @@
         <v>86010000</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <v>17956.562962460121</v>
@@ -895,17 +773,8 @@
       <c r="F12">
         <v>482188.80354748602</v>
       </c>
-      <c r="G12">
-        <v>589035.53990368522</v>
-      </c>
-      <c r="H12">
-        <v>1643996.669370543</v>
-      </c>
-      <c r="I12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>34020000</v>
       </c>
@@ -913,7 +782,7 @@
         <v>34020000</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D13">
         <v>-17956.562962460121</v>
@@ -921,17 +790,8 @@
       <c r="F13">
         <v>-482188.80354748602</v>
       </c>
-      <c r="G13">
-        <v>-589035.53990368522</v>
-      </c>
-      <c r="H13">
-        <v>-1643996.669370543</v>
-      </c>
-      <c r="I13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>32000000</v>
       </c>
@@ -939,7 +799,7 @@
         <v>86020000</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>719594.26798231667</v>
@@ -947,11 +807,8 @@
       <c r="E14">
         <v>4705822.896366315</v>
       </c>
-      <c r="I14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>34010000</v>
       </c>
@@ -959,7 +816,7 @@
         <v>34010000</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D15">
         <v>-719594.26798231667</v>
@@ -967,11 +824,8 @@
       <c r="E15">
         <v>-4705822.896366315</v>
       </c>
-      <c r="I15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>34020000</v>
       </c>
@@ -979,16 +833,13 @@
         <v>34020000</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>756216.54851205403</v>
       </c>
-      <c r="I16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>32000000</v>
       </c>
@@ -996,16 +847,13 @@
         <v>86010000</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>-756216.54851205403</v>
       </c>
-      <c r="I17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>12060020</v>
       </c>
@@ -1013,22 +861,13 @@
         <v>12060020</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>146089.49076604351</v>
       </c>
-      <c r="H18">
-        <v>1103405.6144976821</v>
-      </c>
-      <c r="I18" t="s">
-        <v>48</v>
-      </c>
-      <c r="J18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>21055000</v>
       </c>
@@ -1036,19 +875,13 @@
         <v>21055000</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>-146089.49076604351</v>
       </c>
-      <c r="H19">
-        <v>-1103405.6144976821</v>
-      </c>
-      <c r="I19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>13020170</v>
       </c>
@@ -1056,16 +889,13 @@
         <v>13020170</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="I20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>21055000</v>
       </c>
@@ -1073,16 +903,13 @@
         <v>21055000</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F21">
         <v>17832.509405939101</v>
       </c>
-      <c r="I21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>32000000</v>
       </c>
@@ -1090,16 +917,13 @@
         <v>85020050</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F22">
         <v>-17832.509405939101</v>
       </c>
-      <c r="I22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>32000000</v>
       </c>
@@ -1107,16 +931,13 @@
         <v>84520000</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F23">
         <v>38098.471292224131</v>
       </c>
-      <c r="I23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>12060910</v>
       </c>
@@ -1124,16 +945,13 @@
         <v>12060910</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F24">
         <v>-38098.471292224131</v>
       </c>
-      <c r="I24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>32000000</v>
       </c>
@@ -1141,16 +959,13 @@
         <v>81510000</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F25">
         <v>1482500</v>
       </c>
-      <c r="I25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>32000000</v>
       </c>
@@ -1158,16 +973,13 @@
         <v>82555000</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F26">
         <v>325060</v>
       </c>
-      <c r="I26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>32000000</v>
       </c>
@@ -1175,16 +987,13 @@
         <v>85020060</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F27">
         <v>399655.34</v>
       </c>
-      <c r="I27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>21031040</v>
       </c>
@@ -1192,114 +1001,69 @@
         <v>21031040</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F28">
         <v>-2207215.34</v>
       </c>
-      <c r="I28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>32100000</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
-      </c>
-      <c r="H29">
-        <v>1043180</v>
-      </c>
-      <c r="I29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B30">
         <v>32000000</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
-      </c>
-      <c r="H30">
-        <v>-1043180</v>
-      </c>
-      <c r="I30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B31">
         <v>13020190</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31">
-        <v>1133239</v>
-      </c>
-      <c r="I31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B32">
         <v>21010040</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
-      </c>
-      <c r="H32">
-        <v>3866895</v>
-      </c>
-      <c r="I32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B33">
         <v>13020175</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
-      </c>
-      <c r="H33">
-        <v>-5000134</v>
-      </c>
-      <c r="I33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
-      </c>
-      <c r="H34">
-        <v>1182228.8400000001</v>
-      </c>
-      <c r="I34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
-      </c>
-      <c r="H35">
-        <v>-1182228.8400000001</v>
-      </c>
-      <c r="I35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>32000000</v>
       </c>
@@ -1307,7 +1071,7 @@
         <v>81510000</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D36">
         <v>185658.88274610121</v>
@@ -1315,17 +1079,8 @@
       <c r="F36">
         <v>214345.40389972151</v>
       </c>
-      <c r="G36">
-        <v>121566.8617739757</v>
-      </c>
-      <c r="H36">
-        <v>116274.06227122</v>
-      </c>
-      <c r="I36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>21010030</v>
       </c>
@@ -1333,7 +1088,7 @@
         <v>21010030</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D37">
         <v>-185658.88274610121</v>
@@ -1341,57 +1096,30 @@
       <c r="F37">
         <v>-214345.40389972151</v>
       </c>
-      <c r="G37">
-        <v>-121566.8617739757</v>
-      </c>
-      <c r="H37">
-        <v>-116274.06227122</v>
-      </c>
-      <c r="I37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>21010030</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E38">
         <v>185658.88274610121</v>
       </c>
-      <c r="G38">
-        <v>214345.40389972151</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>81510000</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E39">
         <v>-185658.88274610121</v>
       </c>
-      <c r="G39">
-        <v>-214345.40389972151</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>14015000</v>
       </c>
@@ -1399,22 +1127,13 @@
         <v>14015000</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E40">
         <v>597798.87785930082</v>
       </c>
-      <c r="G40">
-        <v>623638.00090049522</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>32000000</v>
       </c>
@@ -1422,85 +1141,58 @@
         <v>81510000</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E41">
         <v>-597798.87785930082</v>
       </c>
-      <c r="G41">
-        <v>-623638.00090049522</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>81510000</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F42">
         <v>597798.87785930082</v>
       </c>
-      <c r="H42">
-        <v>198828.6464837862</v>
-      </c>
-      <c r="I42" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>14015000</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F43">
         <v>-597798.87785930082</v>
       </c>
-      <c r="H43">
-        <v>-198828.6464837862</v>
-      </c>
-      <c r="I43" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B44">
         <v>83510000</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F44">
         <v>87822.353010000006</v>
       </c>
-      <c r="I44" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>81510000</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F45">
         <v>-627302.52150000003</v>
       </c>
-      <c r="I45" t="s">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J45" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F45" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>